--- a/Income/AMD_inc.xlsx
+++ b/Income/AMD_inc.xlsx
@@ -2291,16 +2291,16 @@
         <v>0.4453</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.4448</v>
+        <v>0.4447</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.4438</v>
+        <v>0.4436</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.437</v>
+        <v>0.4369</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4262</v>
+        <v>0.4261</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4078</v>
@@ -3815,16 +3815,16 @@
         <v>0.1765</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.1718</v>
+        <v>0.1709</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.1576</v>
+        <v>0.1567</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.1489</v>
+        <v>0.148</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.1376</v>
+        <v>0.1365</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.0951</v>
